--- a/Assets/StreamingAssets/Localization/ExcelFiles/Configuration.xlsx
+++ b/Assets/StreamingAssets/Localization/ExcelFiles/Configuration.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silent Lamb\Projects\UnityExtensions\Assets\StreamingAssets\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silent Lamb\Projects\UnityExtensions\Assets\StreamingAssets\Localization\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2467A-9FE3-40CB-9C2A-ACE9E8AA097C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C498DB-D80F-4300-A80E-8FF23BDCE117}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1695" windowWidth="16965" windowHeight="17445" activeTab="1" xr2:uid="{205BBB0C-A73A-48A5-A445-B548B6FC33ED}"/>
+    <workbookView xWindow="6570" yWindow="1620" windowWidth="25755" windowHeight="17445" activeTab="1" xr2:uid="{205BBB0C-A73A-48A5-A445-B548B6FC33ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Font" sheetId="4" r:id="rId1"/>
-    <sheet name="Language" sheetId="1" r:id="rId2"/>
-    <sheet name="Style" sheetId="2" r:id="rId3"/>
+    <sheet name="Fonts" sheetId="4" r:id="rId1"/>
+    <sheet name="Languages" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>简体中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Font</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LineSpacing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,88 +62,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Italic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strikethrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallcaps</t>
+  </si>
+  <si>
+    <t>CharacterSpacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordSpacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParagraphSpacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@System</t>
+  </si>
+  <si>
+    <t>#Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#Subtitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#GameTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Italic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Underline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strikethrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseStyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smallcaps</t>
-  </si>
-  <si>
-    <t>CharacterSpacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WordSpacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParagraphSpacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultFont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansCN</t>
-  </si>
-  <si>
-    <t>SourceHanSansCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansHK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansTW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansKR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansJP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SourceHanSansEN</t>
+    <t>#Caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fonts/SourceHanSansCN-Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思源黑体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>FontName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FontSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +186,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.24994659260841701"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.24994659260841701"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,12 +253,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -227,6 +264,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,261 +598,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E0568-A741-4BF0-A3C8-42972D74D95F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D41" sqref="D41"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:XFD5" xr:uid="{A62FE24D-FA2E-4534-B621-DF190A7DF964}">
-      <formula1>-10000</formula1>
-      <formula2>10000</formula2>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD1048576 D1:XFD2 A2 A1:B1" xr:uid="{B2AF0361-A960-42CD-AAB3-3883D23F90CA}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C7AE37-DCC6-4299-A049-6B1710197C13}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.25" style="5" customWidth="1"/>
+    <col min="2" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B906B1E5-DD05-4FFA-9232-C13196DD787E}">
-          <x14:formula1>
-            <xm:f>Font!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:XFD3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50358A45-551C-4469-969E-4AC46DE6B1BB}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D43" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:XFD3" xr:uid="{339FEFFF-1D7F-4E54-9919-70792E66BA8A}">
+  <dataValidations count="7">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:XFD2 A5:A11 A16 A1:A3 A29 A42:A1048576 A18:A24 A31:A37" xr:uid="{57CD9CC2-D54D-468C-ABCD-48583881FF9B}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:XFD6 B19:XFD19 B32:XFD32" xr:uid="{F6E5678C-34A3-414E-89A7-2BD9AE0E045E}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:XFD7" xr:uid="{708938DF-5798-42F8-9B29-C31800C49A40}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:XFD17 B4:XFD4 B30:XFD30" xr:uid="{9E7FC687-FB8B-4E6F-81F4-66874A76ACE4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17 A4 A30" xr:uid="{F34FCBB9-F5DA-4CB8-8460-A400C818B5E1}">
+      <formula1>2</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:XFD10 B20:XFD23 B33:XFD36" xr:uid="{482A9DA3-681B-46D1-A192-6E9931BDC838}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:XFD8" xr:uid="{DF602B6C-9E96-4922-95A8-AE1FBF78097D}">
-      <formula1>"Original, Lower, Upper, Smallcaps"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:XFD11 B24:XFD24 B37:XFD37" xr:uid="{CE79CBEB-4060-4CCB-9461-7298A00C52E2}">
+      <formula1>"Normal, Lower, Upper, Smallcaps"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:XFD15 B25:XFD28 B38:XFD41" xr:uid="{A62FE24D-FA2E-4534-B621-DF190A7DF964}">
+      <formula1>-10000</formula1>
+      <formula2>10000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,11 +1097,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B84548A-F472-4ECD-BE37-737C942A24C9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A85CFEE2-557B-45FA-BA7C-07E7421DC98E}">
           <x14:formula1>
-            <xm:f>Font!$B$1:$XFD$1</xm:f>
+            <xm:f>Fonts!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:XFD2</xm:sqref>
+          <xm:sqref>B5:XFD5 B18:XFD18 B31:XFD31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
